--- a/realme/April/All Details/30.04.2021/realme Bank Statement April-2021.xlsx
+++ b/realme/April/All Details/30.04.2021/realme Bank Statement April-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021" sheetId="7" r:id="rId1"/>
@@ -2502,9 +2502,6 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2532,12 +2529,51 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2550,45 +2586,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2662,6 +2659,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3233,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3255,21 +3255,21 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="20" t="s">
@@ -3374,12 +3374,12 @@
       <c r="C10" s="26">
         <v>650000</v>
       </c>
-      <c r="D10" s="243">
-        <v>568600</v>
+      <c r="D10" s="296">
+        <v>578600</v>
       </c>
       <c r="E10" s="25">
         <f t="shared" si="0"/>
-        <v>1659341</v>
+        <v>1649341</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="1"/>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="E11" s="25">
         <f t="shared" si="0"/>
-        <v>1825341</v>
+        <v>1815341</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="1"/>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="E12" s="25">
         <f t="shared" si="0"/>
-        <v>1273141</v>
+        <v>1263141</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="27"/>
@@ -3436,9 +3436,9 @@
       </c>
       <c r="E13" s="25">
         <f t="shared" si="0"/>
-        <v>1982141</v>
-      </c>
-      <c r="F13" s="244" t="s">
+        <v>1972141</v>
+      </c>
+      <c r="F13" s="243" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="1"/>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="E14" s="25">
         <f t="shared" si="0"/>
-        <v>2130841</v>
+        <v>2120841</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="1"/>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E15" s="25">
         <f t="shared" si="0"/>
-        <v>1158741</v>
+        <v>1148741</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="1"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="E16" s="25">
         <f t="shared" si="0"/>
-        <v>1158741</v>
+        <v>1148741</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="17"/>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="E17" s="25">
         <f t="shared" si="0"/>
-        <v>1656141</v>
+        <v>1646141</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="9"/>
@@ -3525,17 +3525,17 @@
       <c r="B18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="246">
+      <c r="C18" s="245">
         <v>78900</v>
       </c>
-      <c r="D18" s="246">
+      <c r="D18" s="245">
         <v>78900</v>
       </c>
       <c r="E18" s="25">
         <f>E17+C18-D18</f>
-        <v>1656141</v>
-      </c>
-      <c r="F18" s="244" t="s">
+        <v>1646141</v>
+      </c>
+      <c r="F18" s="243" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="9">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E19" s="25">
         <f t="shared" si="0"/>
-        <v>1710141</v>
+        <v>1700141</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="27"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E20" s="25">
         <f t="shared" si="0"/>
-        <v>1710141</v>
+        <v>1700141</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="27"/>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E21" s="25">
         <f>E20+C21-D21</f>
-        <v>2027341</v>
+        <v>2017341</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="8"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="E22" s="25">
         <f t="shared" si="0"/>
-        <v>2027341</v>
+        <v>2017341</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="1"/>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="E23" s="25">
         <f>E22+C23-D23</f>
-        <v>2027341</v>
+        <v>2017341</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="1"/>
@@ -3649,12 +3649,12 @@
       <c r="C24" s="23">
         <v>0</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="199">
         <v>348000</v>
       </c>
       <c r="E24" s="25">
         <f t="shared" si="0"/>
-        <v>1679341</v>
+        <v>1669341</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="1"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E25" s="25">
         <f t="shared" si="0"/>
-        <v>2079341</v>
+        <v>2069341</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="1"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="E26" s="25">
         <f t="shared" si="0"/>
-        <v>1103741</v>
+        <v>1093741</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="1"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="E27" s="25">
         <f t="shared" si="0"/>
-        <v>1603741</v>
+        <v>1593741</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="1"/>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="E28" s="25">
         <f t="shared" si="0"/>
-        <v>477741</v>
+        <v>467741</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="1"/>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="E29" s="25">
         <f t="shared" si="0"/>
-        <v>477741</v>
+        <v>467741</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="1"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E30" s="25">
         <f t="shared" si="0"/>
-        <v>396941</v>
+        <v>386941</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="1"/>
@@ -3778,12 +3778,12 @@
       <c r="A31" s="19"/>
       <c r="B31" s="24"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="245">
+      <c r="D31" s="244">
         <v>350000</v>
       </c>
       <c r="E31" s="25">
         <f t="shared" si="0"/>
-        <v>46941</v>
+        <v>36941</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="1"/>
@@ -3794,17 +3794,17 @@
       <c r="B32" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="246">
+      <c r="C32" s="245">
         <v>75000</v>
       </c>
-      <c r="D32" s="246">
+      <c r="D32" s="245">
         <v>75000</v>
       </c>
       <c r="E32" s="25">
         <f t="shared" si="0"/>
-        <v>46941</v>
-      </c>
-      <c r="F32" s="244" t="s">
+        <v>36941</v>
+      </c>
+      <c r="F32" s="243" t="s">
         <v>72</v>
       </c>
       <c r="G32" s="1">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="E33" s="25">
         <f t="shared" si="0"/>
-        <v>46941</v>
+        <v>36941</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="1"/>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="E34" s="25">
         <f t="shared" si="0"/>
-        <v>24841</v>
+        <v>14841</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="1"/>
@@ -3861,7 +3861,7 @@
       <c r="D35" s="23"/>
       <c r="E35" s="25">
         <f t="shared" si="0"/>
-        <v>324841</v>
+        <v>314841</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="1"/>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E36" s="25">
         <f t="shared" si="0"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>92</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="E37" s="25">
         <f t="shared" si="0"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="1"/>
@@ -3914,7 +3914,7 @@
       <c r="D38" s="23"/>
       <c r="E38" s="25">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="1"/>
@@ -3927,7 +3927,7 @@
       <c r="D39" s="23"/>
       <c r="E39" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="1"/>
@@ -3940,7 +3940,7 @@
       <c r="D40" s="23"/>
       <c r="E40" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="1"/>
@@ -3953,7 +3953,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="1"/>
@@ -3966,7 +3966,7 @@
       <c r="D42" s="23"/>
       <c r="E42" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="1"/>
@@ -3979,7 +3979,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="1"/>
@@ -3992,7 +3992,7 @@
       <c r="D44" s="23"/>
       <c r="E44" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="1"/>
@@ -4005,7 +4005,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="1"/>
@@ -4018,7 +4018,7 @@
       <c r="D46" s="23"/>
       <c r="E46" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="1"/>
@@ -4031,7 +4031,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="1"/>
@@ -4044,7 +4044,7 @@
       <c r="D48" s="23"/>
       <c r="E48" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="1"/>
@@ -4056,7 +4056,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="1"/>
@@ -4068,7 +4068,7 @@
       <c r="D50" s="23"/>
       <c r="E50" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="1"/>
@@ -4080,7 +4080,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="1"/>
@@ -4092,7 +4092,7 @@
       <c r="D52" s="23"/>
       <c r="E52" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="1"/>
@@ -4104,7 +4104,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="1"/>
@@ -4116,7 +4116,7 @@
       <c r="D54" s="23"/>
       <c r="E54" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="1"/>
@@ -4128,7 +4128,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="1"/>
@@ -4139,7 +4139,7 @@
       <c r="D56" s="23"/>
       <c r="E56" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="1"/>
@@ -4150,7 +4150,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="1"/>
@@ -4161,7 +4161,7 @@
       <c r="D58" s="23"/>
       <c r="E58" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="1"/>
@@ -4172,7 +4172,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="1"/>
@@ -4183,7 +4183,7 @@
       <c r="D60" s="23"/>
       <c r="E60" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="1"/>
@@ -4194,7 +4194,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="1"/>
@@ -4205,7 +4205,7 @@
       <c r="D62" s="23"/>
       <c r="E62" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="1"/>
@@ -4216,7 +4216,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="1"/>
@@ -4227,7 +4227,7 @@
       <c r="D64" s="23"/>
       <c r="E64" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="1"/>
@@ -4238,7 +4238,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="1"/>
@@ -4249,7 +4249,7 @@
       <c r="D66" s="23"/>
       <c r="E66" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="1"/>
@@ -4260,7 +4260,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="1"/>
@@ -4271,7 +4271,7 @@
       <c r="D68" s="23"/>
       <c r="E68" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="1"/>
@@ -4282,7 +4282,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="25">
         <f t="shared" si="1"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="1"/>
@@ -4293,7 +4293,7 @@
       <c r="D70" s="23"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="1"/>
@@ -4304,7 +4304,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="1"/>
@@ -4315,7 +4315,7 @@
       <c r="D72" s="23"/>
       <c r="E72" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="1"/>
@@ -4326,7 +4326,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="1"/>
@@ -4337,7 +4337,7 @@
       <c r="D74" s="23"/>
       <c r="E74" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="1"/>
@@ -4348,7 +4348,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="1"/>
@@ -4359,7 +4359,7 @@
       <c r="D76" s="23"/>
       <c r="E76" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="1"/>
@@ -4370,7 +4370,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="1"/>
@@ -4381,7 +4381,7 @@
       <c r="D78" s="23"/>
       <c r="E78" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="1"/>
@@ -4392,7 +4392,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="1"/>
@@ -4403,7 +4403,7 @@
       <c r="D80" s="23"/>
       <c r="E80" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="1"/>
@@ -4414,7 +4414,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="1"/>
@@ -4425,7 +4425,7 @@
       <c r="D82" s="23"/>
       <c r="E82" s="25">
         <f t="shared" si="2"/>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="1"/>
@@ -4438,11 +4438,11 @@
       </c>
       <c r="D83" s="25">
         <f>SUM(D5:D77)</f>
-        <v>15370350</v>
+        <v>15380350</v>
       </c>
       <c r="E83" s="39">
         <f>E71</f>
-        <v>13291</v>
+        <v>3291</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="1"/>
@@ -4483,73 +4483,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="259"/>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="259"/>
-      <c r="S1" s="259"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="252"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="252"/>
     </row>
     <row r="2" spans="1:26" s="148" customFormat="1" ht="18">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="253" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="260"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="260"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
     </row>
     <row r="3" spans="1:26" s="149" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="254" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="262"/>
-      <c r="F3" s="262"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="262"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="262"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="262"/>
-      <c r="M3" s="262"/>
-      <c r="N3" s="262"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="262"/>
-      <c r="Q3" s="262"/>
-      <c r="R3" s="262"/>
-      <c r="S3" s="263"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="255"/>
+      <c r="S3" s="256"/>
       <c r="U3" s="63"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4558,58 +4558,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="151" customFormat="1">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="257" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="266" t="s">
+      <c r="B4" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="253" t="s">
+      <c r="C4" s="261" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="253" t="s">
+      <c r="D4" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="253" t="s">
+      <c r="F4" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="253" t="s">
+      <c r="G4" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="253" t="s">
+      <c r="H4" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="253" t="s">
+      <c r="I4" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="253" t="s">
+      <c r="J4" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="253" t="s">
+      <c r="K4" s="261" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="253" t="s">
+      <c r="L4" s="261" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="253" t="s">
+      <c r="M4" s="261" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="253" t="s">
+      <c r="N4" s="261" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="255" t="s">
+      <c r="O4" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="257" t="s">
+      <c r="P4" s="269" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="270" t="s">
+      <c r="Q4" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="268" t="s">
+      <c r="R4" s="263" t="s">
         <v>48</v>
       </c>
       <c r="S4" s="150" t="s">
@@ -4622,24 +4622,24 @@
       <c r="Y4" s="153"/>
     </row>
     <row r="5" spans="1:26" s="151" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="265"/>
-      <c r="B5" s="267"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="271"/>
-      <c r="R5" s="269"/>
+      <c r="A5" s="258"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="262"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="262"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="268"/>
+      <c r="P5" s="270"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="264"/>
       <c r="S5" s="155" t="s">
         <v>49</v>
       </c>
@@ -7822,6 +7822,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7838,11 +7843,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7882,14 +7882,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="278"/>
-      <c r="C1" s="278"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
       <c r="L1" s="49"/>
       <c r="M1" s="206"/>
       <c r="N1" s="206"/>
@@ -7942,14 +7942,14 @@
       <c r="BI1" s="206"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="278" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="L2" s="49"/>
       <c r="M2" s="206"/>
       <c r="N2" s="206"/>
@@ -8002,14 +8002,14 @@
       <c r="BI2" s="206"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="279" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
       <c r="K3" s="206"/>
       <c r="L3" s="49"/>
       <c r="M3" s="206"/>
@@ -10183,12 +10183,12 @@
       <c r="BI34" s="206"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="281" t="s">
+      <c r="A35" s="280" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="282"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="283"/>
+      <c r="B35" s="281"/>
+      <c r="C35" s="281"/>
+      <c r="D35" s="282"/>
       <c r="E35" s="63"/>
       <c r="F35" s="65"/>
       <c r="G35" s="79"/>
@@ -10707,13 +10707,13 @@
       <c r="C43" s="57"/>
       <c r="D43" s="89"/>
       <c r="E43" s="63"/>
-      <c r="F43" s="284" t="s">
+      <c r="F43" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="284"/>
-      <c r="H43" s="284"/>
-      <c r="I43" s="284"/>
-      <c r="J43" s="284"/>
+      <c r="G43" s="283"/>
+      <c r="H43" s="283"/>
+      <c r="I43" s="283"/>
+      <c r="J43" s="283"/>
       <c r="K43" s="96"/>
       <c r="L43" s="54"/>
       <c r="M43" s="206"/>
@@ -11903,10 +11903,10 @@
       <c r="C62" s="101"/>
       <c r="D62" s="108"/>
       <c r="E62" s="71"/>
-      <c r="F62" s="272" t="s">
+      <c r="F62" s="271" t="s">
         <v>54</v>
       </c>
-      <c r="G62" s="272"/>
+      <c r="G62" s="271"/>
       <c r="H62" s="205"/>
       <c r="I62" s="205"/>
       <c r="J62" s="109" t="s">
@@ -15248,10 +15248,10 @@
       <c r="BI112" s="206"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="273" t="s">
+      <c r="A113" s="272" t="s">
         <v>32</v>
       </c>
-      <c r="B113" s="274"/>
+      <c r="B113" s="273"/>
       <c r="C113" s="124">
         <f>SUM(C37:C112)</f>
         <v>0</v>
@@ -15383,10 +15383,10 @@
       <c r="BI114" s="206"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="275" t="s">
+      <c r="A115" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="276"/>
+      <c r="B115" s="275"/>
       <c r="C115" s="129">
         <f>C113+L136</f>
         <v>0</v>
@@ -17305,8 +17305,8 @@
       <c r="N169" s="210"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="277"/>
-      <c r="G170" s="277"/>
+      <c r="F170" s="276"/>
+      <c r="G170" s="276"/>
       <c r="H170" s="206"/>
       <c r="I170" s="69"/>
       <c r="J170" s="49"/>
@@ -17964,8 +17964,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17985,35 +17985,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="284" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="287"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="286"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="294" t="s">
+      <c r="A2" s="293" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="296"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="295"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="287" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="290"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="289"/>
       <c r="F3" s="5"/>
       <c r="G3" s="12"/>
       <c r="H3" s="1"/>
@@ -18043,7 +18043,7 @@
       <c r="A4" s="35"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="247"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="36"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -18078,7 +18078,7 @@
         <v>6000000</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="248" t="s">
+      <c r="D5" s="247" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="43">
@@ -18117,7 +18117,7 @@
         <v>258310</v>
       </c>
       <c r="C6" s="42"/>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="247" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="43">
@@ -18152,7 +18152,7 @@
       <c r="A7" s="41"/>
       <c r="B7" s="42"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="249" t="s">
+      <c r="D7" s="248" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="43">
@@ -18187,7 +18187,7 @@
       <c r="A8" s="41"/>
       <c r="B8" s="42"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="248"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="43"/>
       <c r="F8" s="5"/>
       <c r="G8" s="34"/>
@@ -18222,7 +18222,7 @@
         <v>23090</v>
       </c>
       <c r="C9" s="40"/>
-      <c r="D9" s="248"/>
+      <c r="D9" s="247"/>
       <c r="E9" s="43"/>
       <c r="F9" s="5"/>
       <c r="G9" s="34"/>
@@ -18259,7 +18259,7 @@
         <v>22400</v>
       </c>
       <c r="C10" s="40"/>
-      <c r="D10" s="248" t="s">
+      <c r="D10" s="247" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="198">
@@ -18299,7 +18299,7 @@
         <v>212820</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="248"/>
+      <c r="D11" s="247"/>
       <c r="E11" s="43"/>
       <c r="F11" s="5" t="s">
         <v>53</v>
@@ -18338,7 +18338,7 @@
         <v>2500000</v>
       </c>
       <c r="C12" s="40"/>
-      <c r="D12" s="248" t="s">
+      <c r="D12" s="247" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="43">
@@ -18377,7 +18377,7 @@
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="249"/>
+      <c r="D13" s="248"/>
       <c r="E13" s="198"/>
       <c r="F13" s="5"/>
       <c r="G13" s="9"/>
@@ -18414,7 +18414,7 @@
         <v>8712820</v>
       </c>
       <c r="C14" s="40"/>
-      <c r="D14" s="248" t="s">
+      <c r="D14" s="247" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="43">
@@ -18454,7 +18454,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="221"/>
-      <c r="D15" s="250"/>
+      <c r="D15" s="249"/>
       <c r="E15" s="241"/>
       <c r="F15" s="5"/>
       <c r="G15" s="197"/>
@@ -18482,13 +18482,13 @@
       <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" ht="22.5">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="292"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="292"/>
-      <c r="E16" s="293"/>
+      <c r="B16" s="291"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="291"/>
+      <c r="E16" s="292"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="H16" s="238"/>
